--- a/biology/Zoologie/Erythrinidae/Erythrinidae.xlsx
+++ b/biology/Zoologie/Erythrinidae/Erythrinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Erythrinidae, connus aussi comme Trahiras ou Tarariras, sont une famille de poissons d'eau douce de l'ordre des Characiformes. Ils se rencontrent dans les rivières d'Amérique du Sud. Les Erythrinidae sont des poissons cylindriques avec des têtes émoussées. Ils peuvent atteindre des tailles allant jusqu'à 90 cm. Certaines espèces peuvent respirer l'air, leur permettant de survivre dans des eaux pauvres en oxygène[1], et même de se déplacer sur la terre entre les étangs. Ils sont très communs et généralement sont manipulés avec précaution (gants) par les pêcheurs étant donné leur denture et leur voracité extrême.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Erythrinidae, connus aussi comme Trahiras ou Tarariras, sont une famille de poissons d'eau douce de l'ordre des Characiformes. Ils se rencontrent dans les rivières d'Amérique du Sud. Les Erythrinidae sont des poissons cylindriques avec des têtes émoussées. Ils peuvent atteindre des tailles allant jusqu'à 90 cm. Certaines espèces peuvent respirer l'air, leur permettant de survivre dans des eaux pauvres en oxygène, et même de se déplacer sur la terre entre les étangs. Ils sont très communs et généralement sont manipulés avec précaution (gants) par les pêcheurs étant donné leur denture et leur voracité extrême.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (22 juin 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (22 juin 2015) :
 genre Erythrinus Scopoli, 1777
 Erythrinus erythrinus (Bloch &amp; Schneider, 1801)
 Erythrinus kessleri Steindachner, 1877
